--- a/CorrectLink/ig/StructureDefinition-FrRatioUcum.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrRatioUcum.xlsx
@@ -1145,7 +1145,7 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>103</v>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
